--- a/STM보드 핀할당_2026_02_18.xlsx
+++ b/STM보드 핀할당_2026_02_18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\stm32_project\Industrial-Edge-AI-Solution-Challenge-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E10261E-00FE-420F-8269-DB941D5DCAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE4917B-FF7C-40F0-87F1-7F2A38FE5F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{C7424E6A-5E8C-4515-9927-CD15EA41E099}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +265,30 @@
   </si>
   <si>
     <t>RGB LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L432KC </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1 global interrupt -&gt; Enabled 체크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B164EBA-FBAA-41DD-A920-8559A2C1FA2D}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -917,8 +941,47 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
